--- a/商品导入.xlsx
+++ b/商品导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,20 @@
     <t>名称</t>
   </si>
   <si>
-    <t>价格</t>
+    <t>价格
+(只能为数字)</t>
   </si>
   <si>
-    <t>次数</t>
+    <t>次数
+(只能为数字)</t>
   </si>
   <si>
-    <t>手工费</t>
+    <t>手工费
+(只能为数字)</t>
   </si>
   <si>
-    <t>库存</t>
+    <t>库存
+(只能为数字)</t>
   </si>
 </sst>
 </file>
@@ -50,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,6 +82,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -86,17 +113,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,108 +203,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,13 +228,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,169 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,40 +426,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +446,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -486,6 +466,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +502,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -520,154 +524,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -679,59 +686,59 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1027,57 +1034,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.9615384615385" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.8846153846154" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.8461538461538" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="166" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="71" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1092,7 +1099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1100,7 +1107,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1109,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1117,7 +1124,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/商品导入.xlsx
+++ b/商品导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>商品分类：1：产品，2：套盒，3：项目
 产品类别：填数字(1:面部，2：保健品，3：身体，4：其他)
@@ -33,12 +33,15 @@
     <t>名称</t>
   </si>
   <si>
+    <t>商品编号        (可不填)</t>
+  </si>
+  <si>
     <t>价格
 (只能为数字)</t>
   </si>
   <si>
     <t>次数
-(只能为数字)</t>
+(只能为整数)</t>
   </si>
   <si>
     <t>手工费
@@ -46,7 +49,25 @@
   </si>
   <si>
     <t>库存
-(只能为数字)</t>
+(只能为整数)</t>
+  </si>
+  <si>
+    <t>1（样板）</t>
+  </si>
+  <si>
+    <t>氨基酸洗面奶</t>
+  </si>
+  <si>
+    <t>2（样板）</t>
+  </si>
+  <si>
+    <t>疏肩养护套</t>
+  </si>
+  <si>
+    <t>3（样板）</t>
+  </si>
+  <si>
+    <t>眼部修复套</t>
   </si>
 </sst>
 </file>
@@ -59,7 +80,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +96,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,108 +156,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +172,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -211,9 +211,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,13 +262,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,85 +334,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,25 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,42 +437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,32 +453,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,6 +470,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,15 +515,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -519,157 +523,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,6 +715,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1036,25 +1067,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.9615384615385" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.8846153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.8461538461538" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="23.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.9615384615385" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.8846153846154" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.8461538461538" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="166" customHeight="1" spans="1:7">
+    <row r="1" ht="166" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1095,9 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="71" customHeight="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="71" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1087,10 +1119,79 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>268</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>2280</v>
+      </c>
+      <c r="F4" s="6">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>1980</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/商品导入.xlsx
+++ b/商品导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16600"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>商品分类：1：产品，2：套盒，3：项目
 产品类别：填数字(1:面部，2：保健品，3：身体，4：其他)
@@ -76,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -111,24 +111,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,25 +194,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,76 +208,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,13 +256,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,163 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,45 +459,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,6 +470,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +504,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -547,153 +532,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -722,54 +722,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1065,23 +1065,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="4" width="23.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.9615384615385" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.8846153846154" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.9583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.8833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="40" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.8461538461538" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.85" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1200,7 +1204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1208,7 +1212,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1217,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1225,7 +1229,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/商品导入.xlsx
+++ b/商品导入.xlsx
@@ -18,10 +18,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>商品分类：1：产品，2：套盒，3：项目
-产品类别：填数字(1:面部，2：保健品，3：身体，4：其他)
+    <r>
+      <t xml:space="preserve">商品分类：1：产品，2：套盒，3：项目
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产品类别：填数字(1:面部，2：保健品，3：身体，4：其他)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 套盒类别：填数字(5:头部，6：面部，7：身体，8：减肥，9：保养品，10：其他)
-项目类别：填数字(11:头部，12：面部，13：眼部，14：身体，15：减肥，16：私密，17：仪器类，18：大项目，19：修饰美容，20：其他)</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3057E6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目类别：填数字(11:头部，12：面部，13：眼部，14：身体，15：减肥，16：私密，17：仪器类，18：大项目，19：修饰美容，20：其他)</t>
+    </r>
   </si>
   <si>
     <t>商品分类</t>
@@ -37,19 +69,19 @@
   </si>
   <si>
     <t>价格
-(只能为数字)</t>
+(数字)</t>
   </si>
   <si>
     <t>次数
-(只能为整数)</t>
+(整数)</t>
   </si>
   <si>
     <t>手工费
-(只能为数字)</t>
+(数字)</t>
   </si>
   <si>
     <t>库存
-(只能为整数)</t>
+(整数)</t>
   </si>
   <si>
     <t>1（样板）</t>
@@ -75,14 +107,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -96,6 +135,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="4"/>
       <name val="宋体"/>
@@ -104,22 +150,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +218,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,38 +272,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,58 +286,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color rgb="FF3057E6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,52 +513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +563,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,19 +764,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,6 +832,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="003057E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1070,26 +1135,25 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="4" width="23.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.9583333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.8833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.85" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="166" customHeight="1" spans="1:8">
+    <row r="1" ht="64" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1165,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="71" customHeight="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="48" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/商品导入.xlsx
+++ b/商品导入.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -19,8 +19,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
-      <t xml:space="preserve">商品分类：1：产品，2：套盒，3：项目
-</t>
+      <t xml:space="preserve">商品分类：1：产品，2：套盒，3：项目    </t>
     </r>
     <r>
       <rPr>
@@ -52,7 +51,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项目类别：填数字(11:头部，12：面部，13：眼部，14：身体，15：减肥，16：私密，17：仪器类，18：大项目，19：修饰美容，20：其他)</t>
+      <t>项目类别：填数字(11:头部，12:面部，13:眼部，14:身体，15:减肥，16:私密，17:仪器类，18:大项目，19:修饰美容，20:其他)</t>
     </r>
   </si>
   <si>
@@ -107,28 +106,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -142,13 +127,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
-      <color theme="4"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -157,7 +202,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,123 +247,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,26 +502,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,26 +567,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,138 +619,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -767,16 +762,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,125 +1132,125 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="53" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="48" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" ht="32" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
         <v>268</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>2280</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>12</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>5</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>1980</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>10</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>5</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
